--- a/data/src/site/DATA CPS/FKP-PHD-0001-CHRT-201720181.xlsx
+++ b/data/src/site/DATA CPS/FKP-PHD-0001-CHRT-201720181.xlsx
@@ -496,11 +496,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,10 +1249,10 @@
       <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>3670</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="40">
         <v>7170</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -1274,10 +1274,10 @@
       <c r="A20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="40">
-        <v>0</v>
-      </c>
-      <c r="C20" s="40"/>
+      <c r="B20" s="42">
+        <v>0</v>
+      </c>
+      <c r="C20" s="42"/>
       <c r="D20" s="35" t="s">
         <v>58</v>
       </c>
@@ -1551,10 +1551,10 @@
       <c r="A31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="41">
         <v>2400</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="41">
         <v>4100</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -1580,10 +1580,10 @@
       <c r="A32" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="40">
-        <v>0</v>
-      </c>
-      <c r="C32" s="40"/>
+      <c r="B32" s="42">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42"/>
       <c r="D32" s="35" t="s">
         <v>58</v>
       </c>
@@ -1828,10 +1828,10 @@
       <c r="A42" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="41">
         <v>2400</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>3200</v>
       </c>
       <c r="D42" s="15" t="s">
@@ -1857,10 +1857,10 @@
       <c r="A43" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="40">
-        <v>0</v>
-      </c>
-      <c r="C43" s="40"/>
+      <c r="B43" s="42">
+        <v>0</v>
+      </c>
+      <c r="C43" s="42"/>
       <c r="D43" s="35" t="s">
         <v>58</v>
       </c>
@@ -2089,10 +2089,10 @@
       <c r="A53" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="42">
+      <c r="B53" s="41">
         <v>2400</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="41">
         <v>3200</v>
       </c>
       <c r="D53" s="24" t="s">
@@ -2117,10 +2117,10 @@
       <c r="A54" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B54" s="40">
-        <v>0</v>
-      </c>
-      <c r="C54" s="40"/>
+      <c r="B54" s="42">
+        <v>0</v>
+      </c>
+      <c r="C54" s="42"/>
       <c r="D54" s="35" t="s">
         <v>58</v>
       </c>
@@ -2340,10 +2340,10 @@
       <c r="A63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="42">
+      <c r="B63" s="41">
         <v>1100</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="41">
         <v>3200</v>
       </c>
       <c r="D63" s="15" t="s">
@@ -2368,10 +2368,10 @@
       <c r="A64" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="40">
-        <v>0</v>
-      </c>
-      <c r="C64" s="40"/>
+      <c r="B64" s="42">
+        <v>0</v>
+      </c>
+      <c r="C64" s="42"/>
       <c r="D64" s="35" t="s">
         <v>58</v>
       </c>
@@ -2619,10 +2619,10 @@
       <c r="A74" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B74" s="40">
-        <v>0</v>
-      </c>
-      <c r="C74" s="40"/>
+      <c r="B74" s="42">
+        <v>0</v>
+      </c>
+      <c r="C74" s="42"/>
       <c r="D74" s="15"/>
       <c r="E74" s="25">
         <v>0</v>
@@ -2847,10 +2847,10 @@
       <c r="A84" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="40">
-        <v>0</v>
-      </c>
-      <c r="C84" s="40"/>
+      <c r="B84" s="42">
+        <v>0</v>
+      </c>
+      <c r="C84" s="42"/>
       <c r="D84" s="15"/>
       <c r="E84" s="25">
         <v>0</v>
@@ -3075,10 +3075,10 @@
       <c r="A94" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="40">
-        <v>0</v>
-      </c>
-      <c r="C94" s="40"/>
+      <c r="B94" s="42">
+        <v>0</v>
+      </c>
+      <c r="C94" s="42"/>
       <c r="D94" s="15"/>
       <c r="E94" s="25">
         <v>0</v>
@@ -3303,10 +3303,10 @@
       <c r="A104" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="40">
-        <v>0</v>
-      </c>
-      <c r="C104" s="40"/>
+      <c r="B104" s="42">
+        <v>0</v>
+      </c>
+      <c r="C104" s="42"/>
       <c r="D104" s="15"/>
       <c r="E104" s="25">
         <v>0</v>
@@ -3631,15 +3631,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B84:C84"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="B104:C104"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
